--- a/story/Story Summarization 剧情简述/Activity Story 活动剧情/act10d0 Children of Ursus 乌萨斯的孩子们 ウルサスの子供たち/level_act10d0_st07.xlsx
+++ b/story/Story Summarization 剧情简述/Activity Story 活动剧情/act10d0 Children of Ursus 乌萨斯的孩子们 ウルサスの子供たち/level_act10d0_st07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>zh_CN</t>
   </si>
@@ -49,6 +49,14 @@
   </si>
   <si>
     <t xml:space="preserve">She does not know if her mother still lives, and her father has gone to Peterheim Middle School to rescue the students.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">점령당한 학교에서 도망쳐 나온 조야는 자신의 아버지의 동료와 마주치게 되고, 좋지 않은 소식을 전해 듣게 된다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">그건 바로, 조야의 어머니는 생사가 불투명하고, 아버지는 학생들을 구하고자 이미 페테르헤임 고등학교로 향했다는 소식이었다.
 </t>
   </si>
 </sst>
@@ -438,7 +446,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -452,7 +460,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
